--- a/data/big 5 personaiity.xlsx
+++ b/data/big 5 personaiity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C684CF5F-17CC-40AE-8D1E-DA48FD727300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D71B78AD-B6DC-459B-AB05-05C8AF07687F}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{C684CF5F-17CC-40AE-8D1E-DA48FD727300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C555CA5-86C8-4372-B88D-5B917CCD1197}"/>
   <bookViews>
-    <workbookView xWindow="6855" yWindow="1365" windowWidth="22095" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employee" sheetId="2" r:id="rId1"/>
@@ -71,10 +71,10 @@
     <t>ปอ</t>
   </si>
   <si>
-    <t>แพรวา</t>
-  </si>
-  <si>
     <t>ไผ่</t>
+  </si>
+  <si>
+    <t>แพร</t>
   </si>
 </sst>
 </file>
@@ -737,7 +737,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -807,7 +807,7 @@
         <v>https://github.com/prasertcbs/powerbi/raw/main/img/person/2.png</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -834,7 +834,7 @@
         <v>https://github.com/prasertcbs/powerbi/raw/main/img/person/3.png</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -870,10 +870,10 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -881,17 +881,17 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://github.com/prasertcbs/powerbi/raw/main/img/person/5.png</v>
       </c>
       <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -908,26 +908,26 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://github.com/prasertcbs/powerbi/raw/main/img/person/6.png</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
